--- a/public/migracao/formapagamento.xlsx
+++ b/public/migracao/formapagamento.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Forma_de_Pagamento"/>
   </sheets>
   <definedNames>
-    <definedName name="Forma_de_Pagamento">'Forma_de_Pagamento'!$A$1:$A$36</definedName>
+    <definedName name="Forma_de_Pagamento">'Forma_de_Pagamento'!$A$1:$A$37</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -529,75 +529,82 @@
     <row outlineLevel="0" r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>ORÇAMENTO</t>
+          <t>JUROS</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>ORDEM DE PAGAMENTO</t>
+          <t>ORÇAMENTO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>PAGO NO CAIXA</t>
+          <t>ORDEM DE PAGAMENTO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>PERMUTA</t>
+          <t>PAGO NO CAIXA</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>PIX</t>
+          <t>PERMUTA</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>RETENÇÃO</t>
+          <t>PIX</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>RISCO SACADO</t>
+          <t>RETENÇÃO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>SAQUE</t>
+          <t>RISCO SACADO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>SERV. SUSPENSO</t>
+          <t>SAQUE</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>TED</t>
+          <t>SERV. SUSPENSO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>TED</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0" t="inlineStr">
         <is>
           <t>TRANSFERÊNCIA</t>
         </is>
